--- a/data/trans_bre/P19-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.450323544782136</v>
+        <v>-1.634851807571432</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.302006269051688</v>
+        <v>3.349500450611583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.221537770578897</v>
+        <v>2.612096589772174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.894160533872049</v>
+        <v>-3.743441682484932</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06316568405926133</v>
+        <v>-0.07431834908376732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1810138672439756</v>
+        <v>0.1848803366476457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1168413970349786</v>
+        <v>0.1344175870386941</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1980765992108013</v>
+        <v>-0.1947255837925647</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.59077560583728</v>
+        <v>5.369301022941078</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.36743456062545</v>
+        <v>10.37832627117429</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.11770057134865</v>
+        <v>9.867747965421653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.492366866391398</v>
+        <v>3.45399504334062</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3059609224947134</v>
+        <v>0.280488084891019</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7352828322614401</v>
+        <v>0.7186040126906763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6882388927597609</v>
+        <v>0.6447766924078987</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2321470955260455</v>
+        <v>0.2368818840646747</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.00622655069234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.053465932229424</v>
+        <v>6.053465932229418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4433614333336217</v>
@@ -749,7 +749,7 @@
         <v>0.2252030881402208</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2349275227295242</v>
+        <v>0.234927522729524</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.287830171025156</v>
+        <v>8.081898005636821</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.067315194727287</v>
+        <v>4.313037626167382</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.875028754063685</v>
+        <v>4.175969785062654</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.179057960569592</v>
+        <v>3.045950586709786</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3010592801212241</v>
+        <v>0.2980370530190413</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1479623339357396</v>
+        <v>0.1558007657424387</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1192633478071437</v>
+        <v>0.1267979798420472</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1190183354108597</v>
+        <v>0.112593353172615</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.76843311859095</v>
+        <v>14.34579486552405</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.348858156545</v>
+        <v>10.25283534775423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.24858432148838</v>
+        <v>10.00878391930473</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.822208265552565</v>
+        <v>8.86157655358131</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6170956778385571</v>
+        <v>0.6007420594741217</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.422172296877693</v>
+        <v>0.4188493904309165</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3466178887547781</v>
+        <v>0.338437261313125</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3624483303097708</v>
+        <v>0.3689352930979689</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.055696788251744</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.231780590741501</v>
+        <v>9.23178059074149</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1992292382526231</v>
@@ -849,7 +849,7 @@
         <v>0.07960368025819531</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2579407586371471</v>
+        <v>0.2579407586371467</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1912329344712219</v>
+        <v>-0.6115335565902065</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.41077016538494</v>
+        <v>-2.225602907345033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.004248113868458</v>
+        <v>-3.169414042820629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.986698496367622</v>
+        <v>3.996632132072783</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.003628887162065453</v>
+        <v>-0.01261942028419322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.06062068305804274</v>
+        <v>-0.05221560793893004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.07569080334217236</v>
+        <v>-0.07442943354581705</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.09883465723833236</v>
+        <v>0.1063075126030819</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.83843732585304</v>
+        <v>11.54716281496096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.87711879788734</v>
+        <v>11.11166151276571</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.537447928709852</v>
+        <v>8.864950926774091</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.68332450487813</v>
+        <v>14.0608004676143</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4177939034858369</v>
+        <v>0.4103972262723155</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3283335539476673</v>
+        <v>0.3471779520833254</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2745118306616074</v>
+        <v>0.251750511893092</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4459753448281195</v>
+        <v>0.4298130116339626</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.274646713694764</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.836214306900604</v>
+        <v>4.836214306900599</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2600292380484498</v>
@@ -949,7 +949,7 @@
         <v>0.1807987307476863</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1838332787577112</v>
+        <v>0.183833278757711</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.343114033970245</v>
+        <v>4.206642823165589</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.679303618461802</v>
+        <v>3.552340371880372</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.8852310720771</v>
+        <v>3.061894030559258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.597738487595622</v>
+        <v>2.540063980494507</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1660670226455143</v>
+        <v>0.1619381608392835</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1442124988224365</v>
+        <v>0.1338331058715028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09619838489229994</v>
+        <v>0.09973673648464984</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09526861520330358</v>
+        <v>0.09375066988877211</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.739624439758968</v>
+        <v>8.5600487444271</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.960755122279599</v>
+        <v>7.991712890929435</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.579961719417913</v>
+        <v>7.652966307497233</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.966612928754404</v>
+        <v>7.048278539065481</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3663977583601246</v>
+        <v>0.3596757819915951</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3402741388921391</v>
+        <v>0.3342840001180901</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2729633473716213</v>
+        <v>0.2749946260109654</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2794906719126757</v>
+        <v>0.2811960149840813</v>
       </c>
     </row>
     <row r="16">
